--- a/projetoSciaXML/doc/pendencias tela .xlsx
+++ b/projetoSciaXML/doc/pendencias tela .xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="2505" windowWidth="19875" windowHeight="6405"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -12,14 +12,15 @@
     <sheet name="Plan3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan1!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan1!$B$3:$F$3</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
   <si>
     <t>Prioridade</t>
   </si>
@@ -66,14 +67,20 @@
     <t>Status</t>
   </si>
   <si>
-    <t>Pendente</t>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>Backlog - Projeto SciaXML</t>
+  </si>
+  <si>
+    <t>OK (Validar Cálculo)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,20 +89,50 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -125,22 +162,40 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFAA11"/>
+      <color rgb="FFF4520A"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -150,9 +205,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -190,7 +245,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -262,7 +317,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -436,217 +491,232 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="11.85546875" customWidth="1"/>
-    <col min="3" max="3" width="75.5703125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="95.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.28515625" customWidth="1"/>
+    <col min="7" max="7" width="2.5703125" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+    </row>
+    <row r="3" spans="1:6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="C3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F3" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="4" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="2">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="4">
+        <v>41129</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B5" s="2">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2">
-        <v>41131</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <f>A2+1</f>
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="E5" s="4">
+        <v>41129</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="2">
+        <v>10</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="4">
+        <v>41129</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B7" s="2">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="4">
+        <v>41129</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="2">
         <v>4</v>
       </c>
-      <c r="D3" s="2">
-        <v>41131</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <f>A3+1</f>
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="4">
+        <v>41129</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="2">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="2">
-        <v>41131</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <f t="shared" ref="A5:A24" si="0">A4+1</f>
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="E9" s="4">
+        <v>41129</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B10" s="2">
+        <v>6</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="4">
+        <v>41129</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B11" s="2">
         <v>7</v>
       </c>
-      <c r="D5" s="2">
-        <v>41131</v>
-      </c>
-      <c r="E5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="C11" s="2">
+        <v>0</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="4">
+        <v>41129</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B12" s="2">
         <v>8</v>
       </c>
-      <c r="D6" s="2">
-        <v>41131</v>
-      </c>
-      <c r="E6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="2">
-        <v>41131</v>
-      </c>
-      <c r="E7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8" s="4" t="s">
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="4">
+        <v>41129</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="B13" s="8">
         <v>9</v>
       </c>
-      <c r="D8" s="2">
-        <v>41131</v>
-      </c>
-      <c r="E8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="2">
-        <v>41131</v>
-      </c>
-      <c r="E9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="120" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10" s="4" t="s">
+      <c r="C13" s="8">
+        <v>0</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="2">
-        <v>41131</v>
-      </c>
-      <c r="E10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="2">
-        <v>41131</v>
-      </c>
-      <c r="E11" t="s">
-        <v>15</v>
+      <c r="E13" s="10">
+        <v>41129</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E1"/>
+  <autoFilter ref="B3:F3">
+    <sortState ref="B4:F13">
+      <sortCondition ref="F3"/>
+    </sortState>
+  </autoFilter>
+  <mergeCells count="1">
+    <mergeCell ref="B2:F2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
